--- a/0.91_portable_build/inkscape_build_steps.xlsx
+++ b/0.91_portable_build/inkscape_build_steps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="298">
   <si>
     <t>Package</t>
   </si>
@@ -914,6 +914,18 @@
   </si>
   <si>
     <t>util-macros-1.19.0</t>
+  </si>
+  <si>
+    <t>librsvg</t>
+  </si>
+  <si>
+    <t>https://download.gnome.org/sources/librsvg/2.37/librsvg-2.37.0.tar.xz</t>
+  </si>
+  <si>
+    <t>librsvg-2.37.0.tar.xz</t>
+  </si>
+  <si>
+    <t>librsvg-2.37.0</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1026,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF66CCFF"/>
@@ -1316,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,39 +1522,39 @@
       </c>
       <c r="I3" s="5"/>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K64" si="0">CONCATENATE("${SOURCEDIR}/",C3)</f>
+        <f t="shared" ref="K3:K65" si="0">CONCATENATE("${SOURCEDIR}/",C3)</f>
         <v>${SOURCEDIR}/zlib</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L65" si="1">CONCATENATE("mkdir"," ",K3)</f>
+        <f t="shared" ref="L3:L66" si="1">CONCATENATE("mkdir"," ",K3)</f>
         <v>mkdir ${SOURCEDIR}/zlib</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M64" si="2">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K3,"/")</f>
+        <f t="shared" ref="M3:M65" si="2">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K3,"/")</f>
         <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/zlib/</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N64" si="3">CONCATENATE("cd"," ",K3,"/",E3)</f>
+        <f t="shared" ref="N3:N65" si="3">CONCATENATE("cd"," ",K3,"/",E3)</f>
         <v>cd ${SOURCEDIR}/zlib/zlib-1.2.8</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O64" si="4">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D3," -C ",K3)</f>
+        <f t="shared" ref="O3:O65" si="4">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D3," -C ",K3)</f>
         <v>tar -xf  ${ARCHIVEDIR}/zlib-1.2.8.tar.gz -C ${SOURCEDIR}/zlib</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P64" si="5">G3</f>
+        <f t="shared" ref="P3:P65" si="5">G3</f>
         <v>./configure -prefix ${INSTDIR}</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q64" si="6">H3</f>
+        <f t="shared" ref="Q3:Q65" si="6">H3</f>
         <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R65" si="7">CONCATENATE(" echo Building '",B3,"'"," ; ",N3," ; ","`",P3,"  &gt;&gt; ${CONFIGLOG}  ; ",Q3," ;`")</f>
+        <f t="shared" ref="R3:R66" si="7">CONCATENATE(" echo Building '",B3,"'"," ; ",N3," ; ","`",P3,"  &gt;&gt; ${CONFIGLOG}  ; ",Q3," ;`")</f>
         <v xml:space="preserve"> echo Building 'zlib' ; cd ${SOURCEDIR}/zlib/zlib-1.2.8 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S65" si="8">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F3)</f>
+        <f t="shared" ref="S3:S66" si="8">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F3)</f>
         <v>wget  -nc  -P ${ARCHIVEDIR}  http://zlib.net/zlib-1.2.8.tar.gz</v>
       </c>
     </row>
@@ -5308,65 +5348,62 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f>VLOOKUP(C63,Sheet4!A:B,2,FALSE)</f>
-        <v>boost_1_60_0</v>
+        <v>296</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="I63" s="5"/>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
-        <v>${SOURCEDIR}/boost</v>
+        <v>${SOURCEDIR}/librsvg</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/boost</v>
+        <v>mkdir ${SOURCEDIR}/librsvg</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="2"/>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/boost/</v>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/librsvg/</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="3"/>
-        <v>cd ${SOURCEDIR}/boost/boost_1_60_0</v>
+        <v>cd ${SOURCEDIR}/librsvg/librsvg-2.37.0</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>tar -xf  ${ARCHIVEDIR}/boost_1_60_0.tar.gz -C ${SOURCEDIR}/boost</v>
+        <v>tar -xf  ${ARCHIVEDIR}/librsvg-2.37.0.tar.xz -C ${SOURCEDIR}/librsvg</v>
       </c>
       <c r="P63" t="str">
         <f t="shared" si="5"/>
-        <v>./bootstrap.sh --prefix=${INSTDIR}</v>
+        <v>./configure -prefix ${INSTDIR}</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="6"/>
-        <v>./b2 install</v>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> echo Building 'boost' ; cd ${SOURCEDIR}/boost/boost_1_60_0 ; `./bootstrap.sh --prefix=${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; ./b2 install ;`</v>
+        <v xml:space="preserve"> echo Building 'librsvg' ; cd ${SOURCEDIR}/librsvg/librsvg-2.37.0 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="8"/>
-        <v>wget  -nc  -P ${ARCHIVEDIR}  http://sourceforge.net/projects/boost/files/boost/1.60.0/boost_1_60_0.tar.gz</v>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  https://download.gnome.org/sources/librsvg/2.37/librsvg-2.37.0.tar.xz</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5374,63 +5411,65 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" s="2" t="str">
         <f>VLOOKUP(C64,Sheet4!A:B,2,FALSE)</f>
-        <v>popt-1.16</v>
+        <v>boost_1_60_0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I64" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
-        <v>${SOURCEDIR}/libpopt</v>
+        <v>${SOURCEDIR}/boost</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/libpopt</v>
+        <v>mkdir ${SOURCEDIR}/boost</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="2"/>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/libpopt/</v>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/boost/</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="3"/>
-        <v>cd ${SOURCEDIR}/libpopt/popt-1.16</v>
+        <v>cd ${SOURCEDIR}/boost/boost_1_60_0</v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="4"/>
-        <v>tar -xf  ${ARCHIVEDIR}/popt_1.16.orig.tar.gz -C ${SOURCEDIR}/libpopt</v>
+        <v>tar -xf  ${ARCHIVEDIR}/boost_1_60_0.tar.gz -C ${SOURCEDIR}/boost</v>
       </c>
       <c r="P64" t="str">
         <f t="shared" si="5"/>
-        <v>./configure -prefix ${INSTDIR}</v>
+        <v>./bootstrap.sh --prefix=${INSTDIR}</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="6"/>
-        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+        <v>./b2 install</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> echo Building 'libpopt' ; cd ${SOURCEDIR}/libpopt/popt-1.16 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+        <v xml:space="preserve"> echo Building 'boost' ; cd ${SOURCEDIR}/boost/boost_1_60_0 ; `./bootstrap.sh --prefix=${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; ./b2 install ;`</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" si="8"/>
-        <v>wget  -nc  -P ${ARCHIVEDIR}  https://launchpad.net/ubuntu/+archive/primary/+files/popt_1.16.orig.tar.gz</v>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  http://sourceforge.net/projects/boost/files/boost/1.60.0/boost_1_60_0.tar.gz</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5438,19 +5477,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>285</v>
+        <v>207</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f>VLOOKUP(C65,Sheet4!A:B,2,FALSE)</f>
+        <v>popt-1.16</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>10</v>
@@ -5460,38 +5500,101 @@
       </c>
       <c r="I65" s="5"/>
       <c r="K65" t="str">
-        <f t="shared" ref="K65" si="23">CONCATENATE("${SOURCEDIR}/",C65)</f>
-        <v>${SOURCEDIR}/inkscape</v>
+        <f t="shared" si="0"/>
+        <v>${SOURCEDIR}/libpopt</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/inkscape</v>
+        <v>mkdir ${SOURCEDIR}/libpopt</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" ref="M65" si="24">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K65,"/")</f>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/inkscape/</v>
+        <f t="shared" si="2"/>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/libpopt/</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" ref="N65" si="25">CONCATENATE("cd"," ",K65,"/",E65)</f>
-        <v>cd ${SOURCEDIR}/inkscape/inkscape-0.91</v>
+        <f t="shared" si="3"/>
+        <v>cd ${SOURCEDIR}/libpopt/popt-1.16</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" ref="O65" si="26">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D65," -C ",K65)</f>
-        <v>tar -xf  ${ARCHIVEDIR}/inkscape-0.91.tar.bz2 -C ${SOURCEDIR}/inkscape</v>
+        <f t="shared" si="4"/>
+        <v>tar -xf  ${ARCHIVEDIR}/popt_1.16.orig.tar.gz -C ${SOURCEDIR}/libpopt</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" ref="P65" si="27">G65</f>
+        <f t="shared" si="5"/>
         <v>./configure -prefix ${INSTDIR}</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" ref="Q65" si="28">H65</f>
+        <f t="shared" si="6"/>
         <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve"> echo Building 'libpopt' ; cd ${SOURCEDIR}/libpopt/popt-1.16 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="8"/>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  https://launchpad.net/ubuntu/+archive/primary/+files/popt_1.16.orig.tar.gz</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66" si="23">CONCATENATE("${SOURCEDIR}/",C66)</f>
+        <v>${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir ${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" ref="M66" si="24">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K66,"/")</f>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/inkscape/</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" ref="N66" si="25">CONCATENATE("cd"," ",K66,"/",E66)</f>
+        <v>cd ${SOURCEDIR}/inkscape/inkscape-0.91</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" ref="O66" si="26">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D66," -C ",K66)</f>
+        <v>tar -xf  ${ARCHIVEDIR}/inkscape-0.91.tar.bz2 -C ${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" ref="P66" si="27">G66</f>
+        <v>./configure -prefix ${INSTDIR}</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" ref="Q66" si="28">H66</f>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> echo Building 'inkscape' ; cd ${SOURCEDIR}/inkscape/inkscape-0.91 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
-      <c r="S65" t="str">
+      <c r="S66" t="str">
         <f t="shared" si="8"/>
         <v>wget  -nc  -P ${ARCHIVEDIR}  https://inkscape.org/en/gallery/item/3860/inkscape-0.91.tar.bz2</v>
       </c>
@@ -5556,14 +5659,15 @@
     <hyperlink ref="F60" r:id="rId56"/>
     <hyperlink ref="F61" r:id="rId57"/>
     <hyperlink ref="F62" r:id="rId58"/>
-    <hyperlink ref="F64" r:id="rId59"/>
+    <hyperlink ref="F65" r:id="rId59"/>
     <hyperlink ref="F39" r:id="rId60"/>
     <hyperlink ref="F7" r:id="rId61"/>
-    <hyperlink ref="F65" r:id="rId62"/>
+    <hyperlink ref="F66" r:id="rId62"/>
     <hyperlink ref="F28" r:id="rId63"/>
+    <hyperlink ref="F63" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 

--- a/0.91_portable_build/inkscape_build_steps.xlsx
+++ b/0.91_portable_build/inkscape_build_steps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="306">
   <si>
     <t>Package</t>
   </si>
@@ -926,6 +926,30 @@
   </si>
   <si>
     <t>librsvg-2.37.0</t>
+  </si>
+  <si>
+    <t>gobject-introspection</t>
+  </si>
+  <si>
+    <t>http://ftp.gnome.org/pub/gnome/sources/gobject-introspection/1.44/gobject-introspection-1.44.0.tar.xz</t>
+  </si>
+  <si>
+    <t>gobject-introspection-1.44.0.tar.xz</t>
+  </si>
+  <si>
+    <t>gobject-introspection-1.44.0</t>
+  </si>
+  <si>
+    <t>https://www.python.org/ftp/python/2.7.11/Python-2.7.11.tar.xz</t>
+  </si>
+  <si>
+    <t>Python-2.7.11.tar.xz</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Python-2.7.11</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,39 +1546,39 @@
       </c>
       <c r="I3" s="5"/>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K65" si="0">CONCATENATE("${SOURCEDIR}/",C3)</f>
+        <f t="shared" ref="K3:K67" si="0">CONCATENATE("${SOURCEDIR}/",C3)</f>
         <v>${SOURCEDIR}/zlib</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="1">CONCATENATE("mkdir"," ",K3)</f>
+        <f t="shared" ref="L3:L68" si="1">CONCATENATE("mkdir"," ",K3)</f>
         <v>mkdir ${SOURCEDIR}/zlib</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M65" si="2">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K3,"/")</f>
+        <f t="shared" ref="M3:M67" si="2">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K3,"/")</f>
         <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/zlib/</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N65" si="3">CONCATENATE("cd"," ",K3,"/",E3)</f>
+        <f t="shared" ref="N3:N67" si="3">CONCATENATE("cd"," ",K3,"/",E3)</f>
         <v>cd ${SOURCEDIR}/zlib/zlib-1.2.8</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O65" si="4">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D3," -C ",K3)</f>
+        <f t="shared" ref="O3:O67" si="4">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D3," -C ",K3)</f>
         <v>tar -xf  ${ARCHIVEDIR}/zlib-1.2.8.tar.gz -C ${SOURCEDIR}/zlib</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P65" si="5">G3</f>
+        <f t="shared" ref="P3:P67" si="5">G3</f>
         <v>./configure -prefix ${INSTDIR}</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q65" si="6">H3</f>
+        <f t="shared" ref="Q3:Q67" si="6">H3</f>
         <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="7">CONCATENATE(" echo Building '",B3,"'"," ; ",N3," ; ","`",P3,"  &gt;&gt; ${CONFIGLOG}  ; ",Q3," ;`")</f>
+        <f t="shared" ref="R3:R68" si="7">CONCATENATE(" echo Building '",B3,"'"," ; ",N3," ; ","`",P3,"  &gt;&gt; ${CONFIGLOG}  ; ",Q3," ;`")</f>
         <v xml:space="preserve"> echo Building 'zlib' ; cd ${SOURCEDIR}/zlib/zlib-1.2.8 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S66" si="8">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F3)</f>
+        <f t="shared" ref="S3:S68" si="8">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F3)</f>
         <v>wget  -nc  -P ${ARCHIVEDIR}  http://zlib.net/zlib-1.2.8.tar.gz</v>
       </c>
     </row>
@@ -5344,23 +5368,21 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>10</v>
@@ -5370,154 +5392,148 @@
       </c>
       <c r="I63" s="5"/>
       <c r="K63" t="str">
+        <f t="shared" ref="K63" si="23">CONCATENATE("${SOURCEDIR}/",C63)</f>
+        <v>${SOURCEDIR}/python</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" ref="L63" si="24">CONCATENATE("mkdir"," ",K63)</f>
+        <v>mkdir ${SOURCEDIR}/python</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" ref="M63" si="25">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K63,"/")</f>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/python/</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" ref="N63" si="26">CONCATENATE("cd"," ",K63,"/",E63)</f>
+        <v>cd ${SOURCEDIR}/python/Python-2.7.11</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" ref="O63" si="27">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D63," -C ",K63)</f>
+        <v>tar -xf  ${ARCHIVEDIR}/Python-2.7.11.tar.xz -C ${SOURCEDIR}/python</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" ref="P63" si="28">G63</f>
+        <v>./configure -prefix ${INSTDIR}</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" ref="Q63" si="29">H63</f>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" ref="R63" si="30">CONCATENATE(" echo Building '",B63,"'"," ; ",N63," ; ","`",P63,"  &gt;&gt; ${CONFIGLOG}  ; ",Q63," ;`")</f>
+        <v xml:space="preserve"> echo Building 'python' ; cd ${SOURCEDIR}/python/Python-2.7.11 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" ref="S63" si="31">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F63)</f>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  https://www.python.org/ftp/python/2.7.11/Python-2.7.11.tar.xz</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="K64" t="str">
+        <f t="shared" ref="K64" si="32">CONCATENATE("${SOURCEDIR}/",C64)</f>
+        <v>${SOURCEDIR}/gobject-introspection</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" ref="L64" si="33">CONCATENATE("mkdir"," ",K64)</f>
+        <v>mkdir ${SOURCEDIR}/gobject-introspection</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" ref="M64" si="34">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K64,"/")</f>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/gobject-introspection/</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" ref="N64" si="35">CONCATENATE("cd"," ",K64,"/",E64)</f>
+        <v>cd ${SOURCEDIR}/gobject-introspection/gobject-introspection-1.44.0</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" ref="O64" si="36">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D64," -C ",K64)</f>
+        <v>tar -xf  ${ARCHIVEDIR}/gobject-introspection-1.44.0.tar.xz -C ${SOURCEDIR}/gobject-introspection</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" ref="P64" si="37">G64</f>
+        <v>./configure -prefix ${INSTDIR}</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" ref="Q64" si="38">H64</f>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" ref="R64" si="39">CONCATENATE(" echo Building '",B64,"'"," ; ",N64," ; ","`",P64,"  &gt;&gt; ${CONFIGLOG}  ; ",Q64," ;`")</f>
+        <v xml:space="preserve"> echo Building 'gobject-introspection' ; cd ${SOURCEDIR}/gobject-introspection/gobject-introspection-1.44.0 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" ref="S64" si="40">CONCATENATE("wget "," -nc "," -P ","${ARCHIVEDIR}  ",F64)</f>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  http://ftp.gnome.org/pub/gnome/sources/gobject-introspection/1.44/gobject-introspection-1.44.0.tar.xz</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="K65" t="str">
         <f t="shared" si="0"/>
         <v>${SOURCEDIR}/librsvg</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="1"/>
         <v>mkdir ${SOURCEDIR}/librsvg</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M65" t="str">
         <f t="shared" si="2"/>
         <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/librsvg/</v>
       </c>
-      <c r="N63" t="str">
+      <c r="N65" t="str">
         <f t="shared" si="3"/>
         <v>cd ${SOURCEDIR}/librsvg/librsvg-2.37.0</v>
       </c>
-      <c r="O63" t="str">
+      <c r="O65" t="str">
         <f t="shared" si="4"/>
         <v>tar -xf  ${ARCHIVEDIR}/librsvg-2.37.0.tar.xz -C ${SOURCEDIR}/librsvg</v>
-      </c>
-      <c r="P63" t="str">
-        <f t="shared" si="5"/>
-        <v>./configure -prefix ${INSTDIR}</v>
-      </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="6"/>
-        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
-      </c>
-      <c r="R63" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> echo Building 'librsvg' ; cd ${SOURCEDIR}/librsvg/librsvg-2.37.0 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
-      </c>
-      <c r="S63" t="str">
-        <f t="shared" si="8"/>
-        <v>wget  -nc  -P ${ARCHIVEDIR}  https://download.gnome.org/sources/librsvg/2.37/librsvg-2.37.0.tar.xz</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f>VLOOKUP(C64,Sheet4!A:B,2,FALSE)</f>
-        <v>boost_1_60_0</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="0"/>
-        <v>${SOURCEDIR}/boost</v>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/boost</v>
-      </c>
-      <c r="M64" t="str">
-        <f t="shared" si="2"/>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/boost/</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="3"/>
-        <v>cd ${SOURCEDIR}/boost/boost_1_60_0</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="4"/>
-        <v>tar -xf  ${ARCHIVEDIR}/boost_1_60_0.tar.gz -C ${SOURCEDIR}/boost</v>
-      </c>
-      <c r="P64" t="str">
-        <f t="shared" si="5"/>
-        <v>./bootstrap.sh --prefix=${INSTDIR}</v>
-      </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="6"/>
-        <v>./b2 install</v>
-      </c>
-      <c r="R64" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> echo Building 'boost' ; cd ${SOURCEDIR}/boost/boost_1_60_0 ; `./bootstrap.sh --prefix=${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; ./b2 install ;`</v>
-      </c>
-      <c r="S64" t="str">
-        <f t="shared" si="8"/>
-        <v>wget  -nc  -P ${ARCHIVEDIR}  http://sourceforge.net/projects/boost/files/boost/1.60.0/boost_1_60_0.tar.gz</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f>VLOOKUP(C65,Sheet4!A:B,2,FALSE)</f>
-        <v>popt-1.16</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="K65" t="str">
-        <f t="shared" si="0"/>
-        <v>${SOURCEDIR}/libpopt</v>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/libpopt</v>
-      </c>
-      <c r="M65" t="str">
-        <f t="shared" si="2"/>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/libpopt/</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="3"/>
-        <v>cd ${SOURCEDIR}/libpopt/popt-1.16</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="4"/>
-        <v>tar -xf  ${ARCHIVEDIR}/popt_1.16.orig.tar.gz -C ${SOURCEDIR}/libpopt</v>
       </c>
       <c r="P65" t="str">
         <f t="shared" si="5"/>
@@ -5529,72 +5545,202 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> echo Building 'libpopt' ; cd ${SOURCEDIR}/libpopt/popt-1.16 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+        <v xml:space="preserve"> echo Building 'librsvg' ; cd ${SOURCEDIR}/librsvg/librsvg-2.37.0 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" si="8"/>
-        <v>wget  -nc  -P ${ARCHIVEDIR}  https://launchpad.net/ubuntu/+archive/primary/+files/popt_1.16.orig.tar.gz</v>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  https://download.gnome.org/sources/librsvg/2.37/librsvg-2.37.0.tar.xz</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>285</v>
+        <v>206</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f>VLOOKUP(C66,Sheet4!A:B,2,FALSE)</f>
+        <v>boost_1_60_0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>286</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I66" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66" si="23">CONCATENATE("${SOURCEDIR}/",C66)</f>
-        <v>${SOURCEDIR}/inkscape</v>
+        <f t="shared" si="0"/>
+        <v>${SOURCEDIR}/boost</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir ${SOURCEDIR}/inkscape</v>
+        <v>mkdir ${SOURCEDIR}/boost</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66" si="24">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K66,"/")</f>
-        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/inkscape/</v>
+        <f t="shared" si="2"/>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/boost/</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" ref="N66" si="25">CONCATENATE("cd"," ",K66,"/",E66)</f>
-        <v>cd ${SOURCEDIR}/inkscape/inkscape-0.91</v>
+        <f t="shared" si="3"/>
+        <v>cd ${SOURCEDIR}/boost/boost_1_60_0</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" ref="O66" si="26">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D66," -C ",K66)</f>
-        <v>tar -xf  ${ARCHIVEDIR}/inkscape-0.91.tar.bz2 -C ${SOURCEDIR}/inkscape</v>
+        <f t="shared" si="4"/>
+        <v>tar -xf  ${ARCHIVEDIR}/boost_1_60_0.tar.gz -C ${SOURCEDIR}/boost</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" ref="P66" si="27">G66</f>
-        <v>./configure -prefix ${INSTDIR}</v>
+        <f t="shared" si="5"/>
+        <v>./bootstrap.sh --prefix=${INSTDIR}</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ref="Q66" si="28">H66</f>
-        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+        <f t="shared" si="6"/>
+        <v>./b2 install</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve"> echo Building 'boost' ; cd ${SOURCEDIR}/boost/boost_1_60_0 ; `./bootstrap.sh --prefix=${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; ./b2 install ;`</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="8"/>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  http://sourceforge.net/projects/boost/files/boost/1.60.0/boost_1_60_0.tar.gz</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f>VLOOKUP(C67,Sheet4!A:B,2,FALSE)</f>
+        <v>popt-1.16</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
+        <v>${SOURCEDIR}/libpopt</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir ${SOURCEDIR}/libpopt</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="2"/>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/libpopt/</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="3"/>
+        <v>cd ${SOURCEDIR}/libpopt/popt-1.16</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="4"/>
+        <v>tar -xf  ${ARCHIVEDIR}/popt_1.16.orig.tar.gz -C ${SOURCEDIR}/libpopt</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="5"/>
+        <v>./configure -prefix ${INSTDIR}</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="6"/>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> echo Building 'libpopt' ; cd ${SOURCEDIR}/libpopt/popt-1.16 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="8"/>
+        <v>wget  -nc  -P ${ARCHIVEDIR}  https://launchpad.net/ubuntu/+archive/primary/+files/popt_1.16.orig.tar.gz</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68" si="41">CONCATENATE("${SOURCEDIR}/",C68)</f>
+        <v>${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir ${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" ref="M68" si="42">CONCATENATE("cp ","${ARCHIVEDIR}"," ",K68,"/")</f>
+        <v>cp ${ARCHIVEDIR} ${SOURCEDIR}/inkscape/</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" ref="N68" si="43">CONCATENATE("cd"," ",K68,"/",E68)</f>
+        <v>cd ${SOURCEDIR}/inkscape/inkscape-0.91</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" ref="O68" si="44">CONCATENATE("tar -xf  ","${ARCHIVEDIR}/",,D68," -C ",K68)</f>
+        <v>tar -xf  ${ARCHIVEDIR}/inkscape-0.91.tar.bz2 -C ${SOURCEDIR}/inkscape</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" ref="P68" si="45">G68</f>
+        <v>./configure -prefix ${INSTDIR}</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68" si="46">H68</f>
+        <v>make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG}</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> echo Building 'inkscape' ; cd ${SOURCEDIR}/inkscape/inkscape-0.91 ; `./configure -prefix ${INSTDIR}  &gt;&gt; ${CONFIGLOG}  ; make  &gt;&gt; ${MAKELOG}; make install  &gt;&gt; ${MAKEINSTALLLOG} ;`</v>
       </c>
-      <c r="S66" t="str">
+      <c r="S68" t="str">
         <f t="shared" si="8"/>
         <v>wget  -nc  -P ${ARCHIVEDIR}  https://inkscape.org/en/gallery/item/3860/inkscape-0.91.tar.bz2</v>
       </c>
@@ -5659,15 +5805,16 @@
     <hyperlink ref="F60" r:id="rId56"/>
     <hyperlink ref="F61" r:id="rId57"/>
     <hyperlink ref="F62" r:id="rId58"/>
-    <hyperlink ref="F65" r:id="rId59"/>
+    <hyperlink ref="F67" r:id="rId59"/>
     <hyperlink ref="F39" r:id="rId60"/>
     <hyperlink ref="F7" r:id="rId61"/>
-    <hyperlink ref="F66" r:id="rId62"/>
+    <hyperlink ref="F68" r:id="rId62"/>
     <hyperlink ref="F28" r:id="rId63"/>
-    <hyperlink ref="F63" r:id="rId64"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F64" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
